--- a/loan/loan.xlsx
+++ b/loan/loan.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="2008">
   <si>
-    <t xml:space="preserve">                Principal</t>
+    <t xml:space="preserve">        Principal</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                Interest Rate</t>
+    <t xml:space="preserve">        Interest Rate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -41,7 +41,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                Start Date</t>
+    <t xml:space="preserve">        Start Date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -53,27 +53,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                                             </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                       </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance                </t>
+    <t xml:space="preserve">                             </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance              </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -81,7 +81,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Ending Balance                   </t>
+    <t xml:space="preserve">Ending Balance           </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -89,7 +89,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">                                             </t>
+    <t xml:space="preserve">                             </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
